--- a/webscript/usat/usat-manufacturing.xlsx
+++ b/webscript/usat/usat-manufacturing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="122">
   <si>
     <t>comp_count</t>
   </si>
@@ -37,6 +37,12 @@
     <t>start_date</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>USA Today - All sources</t>
   </si>
   <si>
@@ -364,7 +370,16 @@
     <t>Society of Toxicology</t>
   </si>
   <si>
+    <t>20181231</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>sc=usat and la=en and ((aircraft sector) or (aircraft industry) or (aircraft-sector) or (aircraft-industry) or (cosmetics sector) or (cosmetics industry) or (cosmetics-sector) or (cosmetics-industry) or (factory sector) or (factory industry) or (factory-sector) or (factory-industry) or (jewelry sector) or (jewelry industry) or (jewelry-sector) or (jewelry-industry) or (manufacturing sector) or (manufacturing industry) or (manufacturing-sector) or (manufacturing-industry) or (toy sector) or (toy industry) or (toy-sector) or (toy-industry))</t>
+  </si>
+  <si>
+    <t>20181001</t>
   </si>
 </sst>
 </file>
@@ -756,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>19870630</v>
@@ -768,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G2">
         <v>19870401</v>
@@ -779,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>19870930</v>
@@ -791,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G3">
         <v>19870701</v>
@@ -802,7 +817,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>19871231</v>
@@ -814,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G4">
         <v>19871001</v>
@@ -825,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>19880331</v>
@@ -837,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G5">
         <v>19880101</v>
@@ -848,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>19880630</v>
@@ -860,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G6">
         <v>19880401</v>
@@ -871,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>19880930</v>
@@ -883,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G7">
         <v>19880701</v>
@@ -894,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>19881231</v>
@@ -906,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G8">
         <v>19881001</v>
@@ -917,7 +932,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>19890331</v>
@@ -929,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G9">
         <v>19890101</v>
@@ -940,7 +955,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>19890630</v>
@@ -952,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G10">
         <v>19890401</v>
@@ -963,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>19890930</v>
@@ -975,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G11">
         <v>19890701</v>
@@ -986,7 +1001,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>19891231</v>
@@ -998,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G12">
         <v>19891001</v>
@@ -1009,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>19900331</v>
@@ -1021,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G13">
         <v>19900101</v>
@@ -1032,7 +1047,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>19900630</v>
@@ -1044,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G14">
         <v>19900401</v>
@@ -1055,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>19900930</v>
@@ -1067,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G15">
         <v>19900701</v>
@@ -1078,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>19901231</v>
@@ -1090,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G16">
         <v>19901001</v>
@@ -1101,7 +1116,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>19910331</v>
@@ -1113,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G17">
         <v>19910101</v>
@@ -1124,7 +1139,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>19910630</v>
@@ -1136,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G18">
         <v>19910401</v>
@@ -1147,7 +1162,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>19910930</v>
@@ -1159,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G19">
         <v>19910701</v>
@@ -1170,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>19911231</v>
@@ -1182,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G20">
         <v>19911001</v>
@@ -1193,7 +1208,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>19920331</v>
@@ -1205,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G21">
         <v>19920101</v>
@@ -1216,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>19920630</v>
@@ -1228,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G22">
         <v>19920401</v>
@@ -1239,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>19920930</v>
@@ -1251,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G23">
         <v>19920701</v>
@@ -1262,7 +1277,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>19921231</v>
@@ -1274,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G24">
         <v>19921001</v>
@@ -1285,7 +1300,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>19930331</v>
@@ -1297,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G25">
         <v>19930101</v>
@@ -1308,7 +1323,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>19930630</v>
@@ -1320,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G26">
         <v>19930401</v>
@@ -1331,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>19930930</v>
@@ -1343,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G27">
         <v>19930701</v>
@@ -1354,7 +1369,7 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>19931231</v>
@@ -1366,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G28">
         <v>19931001</v>
@@ -1377,7 +1392,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>19940331</v>
@@ -1389,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G29">
         <v>19940101</v>
@@ -1400,7 +1415,7 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>19940630</v>
@@ -1412,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G30">
         <v>19940401</v>
@@ -1423,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>19940930</v>
@@ -1435,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G31">
         <v>19940701</v>
@@ -1446,7 +1461,7 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>19941231</v>
@@ -1458,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G32">
         <v>19941001</v>
@@ -1469,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>19950331</v>
@@ -1481,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G33">
         <v>19950101</v>
@@ -1492,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>19950630</v>
@@ -1504,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G34">
         <v>19950401</v>
@@ -1515,7 +1530,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>19950930</v>
@@ -1527,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G35">
         <v>19950701</v>
@@ -1538,7 +1553,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>19951231</v>
@@ -1550,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G36">
         <v>19951001</v>
@@ -1561,7 +1576,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>19960331</v>
@@ -1573,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G37">
         <v>19960101</v>
@@ -1584,7 +1599,7 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>19960630</v>
@@ -1596,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G38">
         <v>19960401</v>
@@ -1607,7 +1622,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>19960930</v>
@@ -1619,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G39">
         <v>19960701</v>
@@ -1630,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>19961231</v>
@@ -1642,7 +1657,7 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G40">
         <v>19961001</v>
@@ -1653,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C41">
         <v>19961231</v>
@@ -1665,7 +1680,7 @@
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G41">
         <v>19961001</v>
@@ -1676,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C42">
         <v>19961231</v>
@@ -1688,7 +1703,7 @@
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G42">
         <v>19961001</v>
@@ -1699,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C43">
         <v>19961231</v>
@@ -1711,7 +1726,7 @@
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G43">
         <v>19961001</v>
@@ -1722,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <v>19961231</v>
@@ -1734,7 +1749,7 @@
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G44">
         <v>19961001</v>
@@ -1745,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>19961231</v>
@@ -1757,7 +1772,7 @@
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G45">
         <v>19961001</v>
@@ -1768,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C46">
         <v>19961231</v>
@@ -1780,7 +1795,7 @@
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G46">
         <v>19961001</v>
@@ -1791,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C47">
         <v>19961231</v>
@@ -1803,7 +1818,7 @@
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G47">
         <v>19961001</v>
@@ -1814,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C48">
         <v>19961231</v>
@@ -1826,7 +1841,7 @@
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G48">
         <v>19961001</v>
@@ -1837,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C49">
         <v>19961231</v>
@@ -1849,7 +1864,7 @@
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G49">
         <v>19961001</v>
@@ -1860,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C50">
         <v>19961231</v>
@@ -1872,7 +1887,7 @@
         <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G50">
         <v>19961001</v>
@@ -1883,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C51">
         <v>19961231</v>
@@ -1895,7 +1910,7 @@
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G51">
         <v>19961001</v>
@@ -1906,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C52">
         <v>19961231</v>
@@ -1918,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G52">
         <v>19961001</v>
@@ -1929,7 +1944,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C53">
         <v>19970331</v>
@@ -1941,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G53">
         <v>19970101</v>
@@ -1952,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54">
         <v>19970331</v>
@@ -1964,7 +1979,7 @@
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G54">
         <v>19970101</v>
@@ -1975,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C55">
         <v>19970331</v>
@@ -1987,7 +2002,7 @@
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G55">
         <v>19970101</v>
@@ -1998,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C56">
         <v>19970331</v>
@@ -2010,7 +2025,7 @@
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G56">
         <v>19970101</v>
@@ -2021,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C57">
         <v>19970630</v>
@@ -2033,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G57">
         <v>19970401</v>
@@ -2044,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C58">
         <v>19970930</v>
@@ -2056,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G58">
         <v>19970701</v>
@@ -2067,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C59">
         <v>19971231</v>
@@ -2079,7 +2094,7 @@
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G59">
         <v>19971001</v>
@@ -2090,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C60">
         <v>19971231</v>
@@ -2102,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G60">
         <v>19971001</v>
@@ -2113,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>19971231</v>
@@ -2125,7 +2140,7 @@
         <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G61">
         <v>19971001</v>
@@ -2136,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C62">
         <v>19980331</v>
@@ -2148,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G62">
         <v>19980101</v>
@@ -2159,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C63">
         <v>19980331</v>
@@ -2171,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G63">
         <v>19980101</v>
@@ -2182,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C64">
         <v>19980630</v>
@@ -2194,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G64">
         <v>19980401</v>
@@ -2205,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C65">
         <v>19980930</v>
@@ -2217,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G65">
         <v>19980701</v>
@@ -2228,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C66">
         <v>19981231</v>
@@ -2240,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G66">
         <v>19981001</v>
@@ -2251,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C67">
         <v>19981231</v>
@@ -2263,7 +2278,7 @@
         <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G67">
         <v>19981001</v>
@@ -2274,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C68">
         <v>19990331</v>
@@ -2286,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G68">
         <v>19990101</v>
@@ -2297,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C69">
         <v>19990630</v>
@@ -2309,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G69">
         <v>19990401</v>
@@ -2320,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C70">
         <v>19990930</v>
@@ -2332,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G70">
         <v>19990701</v>
@@ -2343,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>19991231</v>
@@ -2355,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G71">
         <v>19991001</v>
@@ -2366,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C72">
         <v>20000331</v>
@@ -2378,7 +2393,7 @@
         <v>3</v>
       </c>
       <c r="F72" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G72">
         <v>20000101</v>
@@ -2389,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C73">
         <v>20000331</v>
@@ -2401,7 +2416,7 @@
         <v>3</v>
       </c>
       <c r="F73" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G73">
         <v>20000101</v>
@@ -2412,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C74">
         <v>20000331</v>
@@ -2424,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="F74" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G74">
         <v>20000101</v>
@@ -2435,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C75">
         <v>20000630</v>
@@ -2447,7 +2462,7 @@
         <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G75">
         <v>20000401</v>
@@ -2458,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C76">
         <v>20000630</v>
@@ -2470,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="F76" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G76">
         <v>20000401</v>
@@ -2481,7 +2496,7 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C77">
         <v>20000930</v>
@@ -2493,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G77">
         <v>20000701</v>
@@ -2504,7 +2519,7 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C78">
         <v>20001231</v>
@@ -2516,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G78">
         <v>20001001</v>
@@ -2527,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C79">
         <v>20010331</v>
@@ -2539,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G79">
         <v>20010101</v>
@@ -2550,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C80">
         <v>20010630</v>
@@ -2562,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="F80" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G80">
         <v>20010401</v>
@@ -2573,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C81">
         <v>20010630</v>
@@ -2585,7 +2600,7 @@
         <v>6</v>
       </c>
       <c r="F81" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G81">
         <v>20010401</v>
@@ -2596,7 +2611,7 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C82">
         <v>20010630</v>
@@ -2608,7 +2623,7 @@
         <v>6</v>
       </c>
       <c r="F82" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G82">
         <v>20010401</v>
@@ -2619,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C83">
         <v>20010630</v>
@@ -2631,7 +2646,7 @@
         <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G83">
         <v>20010401</v>
@@ -2642,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C84">
         <v>20010630</v>
@@ -2654,7 +2669,7 @@
         <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G84">
         <v>20010401</v>
@@ -2665,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C85">
         <v>20010630</v>
@@ -2677,7 +2692,7 @@
         <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G85">
         <v>20010401</v>
@@ -2688,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C86">
         <v>20010930</v>
@@ -2700,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="F86" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G86">
         <v>20010701</v>
@@ -2711,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C87">
         <v>20010930</v>
@@ -2723,7 +2738,7 @@
         <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G87">
         <v>20010701</v>
@@ -2734,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C88">
         <v>20011231</v>
@@ -2746,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="F88" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G88">
         <v>20011001</v>
@@ -2757,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C89">
         <v>20011231</v>
@@ -2769,7 +2784,7 @@
         <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G89">
         <v>20011001</v>
@@ -2780,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C90">
         <v>20020331</v>
@@ -2792,7 +2807,7 @@
         <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G90">
         <v>20020101</v>
@@ -2803,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C91">
         <v>20020331</v>
@@ -2815,7 +2830,7 @@
         <v>4</v>
       </c>
       <c r="F91" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G91">
         <v>20020101</v>
@@ -2826,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C92">
         <v>20020331</v>
@@ -2838,7 +2853,7 @@
         <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G92">
         <v>20020101</v>
@@ -2849,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C93">
         <v>20020331</v>
@@ -2861,7 +2876,7 @@
         <v>4</v>
       </c>
       <c r="F93" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G93">
         <v>20020101</v>
@@ -2872,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C94">
         <v>20020630</v>
@@ -2884,7 +2899,7 @@
         <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G94">
         <v>20020401</v>
@@ -2895,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C95">
         <v>20020630</v>
@@ -2907,7 +2922,7 @@
         <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G95">
         <v>20020401</v>
@@ -2918,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C96">
         <v>20020630</v>
@@ -2930,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G96">
         <v>20020401</v>
@@ -2941,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C97">
         <v>20020630</v>
@@ -2953,7 +2968,7 @@
         <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G97">
         <v>20020401</v>
@@ -2964,7 +2979,7 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C98">
         <v>20020930</v>
@@ -2976,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G98">
         <v>20020701</v>
@@ -2987,7 +3002,7 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C99">
         <v>20021231</v>
@@ -2999,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G99">
         <v>20021001</v>
@@ -3010,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C100">
         <v>20030331</v>
@@ -3022,7 +3037,7 @@
         <v>3</v>
       </c>
       <c r="F100" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G100">
         <v>20030101</v>
@@ -3033,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C101">
         <v>20030331</v>
@@ -3045,7 +3060,7 @@
         <v>3</v>
       </c>
       <c r="F101" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G101">
         <v>20030101</v>
@@ -3056,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C102">
         <v>20030331</v>
@@ -3068,7 +3083,7 @@
         <v>3</v>
       </c>
       <c r="F102" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G102">
         <v>20030101</v>
@@ -3079,7 +3094,7 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C103">
         <v>20030630</v>
@@ -3091,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G103">
         <v>20030401</v>
@@ -3102,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C104">
         <v>20030930</v>
@@ -3114,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G104">
         <v>20030701</v>
@@ -3125,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C105">
         <v>20031231</v>
@@ -3137,7 +3152,7 @@
         <v>3</v>
       </c>
       <c r="F105" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G105">
         <v>20031001</v>
@@ -3148,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C106">
         <v>20031231</v>
@@ -3160,7 +3175,7 @@
         <v>3</v>
       </c>
       <c r="F106" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G106">
         <v>20031001</v>
@@ -3171,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C107">
         <v>20031231</v>
@@ -3183,7 +3198,7 @@
         <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G107">
         <v>20031001</v>
@@ -3194,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C108">
         <v>20040331</v>
@@ -3206,7 +3221,7 @@
         <v>3</v>
       </c>
       <c r="F108" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G108">
         <v>20040101</v>
@@ -3217,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C109">
         <v>20040331</v>
@@ -3229,7 +3244,7 @@
         <v>3</v>
       </c>
       <c r="F109" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G109">
         <v>20040101</v>
@@ -3240,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C110">
         <v>20040331</v>
@@ -3252,7 +3267,7 @@
         <v>3</v>
       </c>
       <c r="F110" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G110">
         <v>20040101</v>
@@ -3263,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C111">
         <v>20040630</v>
@@ -3275,7 +3290,7 @@
         <v>3</v>
       </c>
       <c r="F111" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G111">
         <v>20040401</v>
@@ -3286,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C112">
         <v>20040630</v>
@@ -3298,7 +3313,7 @@
         <v>3</v>
       </c>
       <c r="F112" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G112">
         <v>20040401</v>
@@ -3309,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C113">
         <v>20040630</v>
@@ -3321,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="F113" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G113">
         <v>20040401</v>
@@ -3332,7 +3347,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C114">
         <v>20040930</v>
@@ -3344,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G114">
         <v>20040701</v>
@@ -3355,7 +3370,7 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C115">
         <v>20041231</v>
@@ -3367,7 +3382,7 @@
         <v>7</v>
       </c>
       <c r="F115" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G115">
         <v>20041001</v>
@@ -3378,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C116">
         <v>20041231</v>
@@ -3390,7 +3405,7 @@
         <v>7</v>
       </c>
       <c r="F116" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G116">
         <v>20041001</v>
@@ -3401,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C117">
         <v>20041231</v>
@@ -3413,7 +3428,7 @@
         <v>7</v>
       </c>
       <c r="F117" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G117">
         <v>20041001</v>
@@ -3424,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C118">
         <v>20041231</v>
@@ -3436,7 +3451,7 @@
         <v>7</v>
       </c>
       <c r="F118" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G118">
         <v>20041001</v>
@@ -3447,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C119">
         <v>20041231</v>
@@ -3459,7 +3474,7 @@
         <v>7</v>
       </c>
       <c r="F119" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G119">
         <v>20041001</v>
@@ -3470,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C120">
         <v>20041231</v>
@@ -3482,7 +3497,7 @@
         <v>7</v>
       </c>
       <c r="F120" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G120">
         <v>20041001</v>
@@ -3493,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C121">
         <v>20041231</v>
@@ -3505,7 +3520,7 @@
         <v>7</v>
       </c>
       <c r="F121" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G121">
         <v>20041001</v>
@@ -3516,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C122">
         <v>20050331</v>
@@ -3528,7 +3543,7 @@
         <v>2</v>
       </c>
       <c r="F122" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G122">
         <v>20050101</v>
@@ -3539,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C123">
         <v>20050331</v>
@@ -3551,7 +3566,7 @@
         <v>2</v>
       </c>
       <c r="F123" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G123">
         <v>20050101</v>
@@ -3562,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C124">
         <v>20050630</v>
@@ -3574,7 +3589,7 @@
         <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G124">
         <v>20050401</v>
@@ -3585,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="B125" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C125">
         <v>20050630</v>
@@ -3597,7 +3612,7 @@
         <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G125">
         <v>20050401</v>
@@ -3608,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C126">
         <v>20050930</v>
@@ -3620,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G126">
         <v>20050701</v>
@@ -3631,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C127">
         <v>20051231</v>
@@ -3643,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G127">
         <v>20051001</v>
@@ -3654,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="B128" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C128">
         <v>20060331</v>
@@ -3666,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G128">
         <v>20060101</v>
@@ -3677,7 +3692,7 @@
         <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C129">
         <v>20060630</v>
@@ -3689,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G129">
         <v>20060401</v>
@@ -3700,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="B130" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C130">
         <v>20060930</v>
@@ -3712,7 +3727,7 @@
         <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G130">
         <v>20060701</v>
@@ -3723,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C131">
         <v>20060930</v>
@@ -3735,7 +3750,7 @@
         <v>2</v>
       </c>
       <c r="F131" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G131">
         <v>20060701</v>
@@ -3746,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C132">
         <v>20061231</v>
@@ -3758,7 +3773,7 @@
         <v>6</v>
       </c>
       <c r="F132" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G132">
         <v>20061001</v>
@@ -3769,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="B133" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C133">
         <v>20061231</v>
@@ -3781,7 +3796,7 @@
         <v>6</v>
       </c>
       <c r="F133" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G133">
         <v>20061001</v>
@@ -3792,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="B134" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C134">
         <v>20061231</v>
@@ -3804,7 +3819,7 @@
         <v>6</v>
       </c>
       <c r="F134" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G134">
         <v>20061001</v>
@@ -3815,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C135">
         <v>20061231</v>
@@ -3827,7 +3842,7 @@
         <v>6</v>
       </c>
       <c r="F135" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G135">
         <v>20061001</v>
@@ -3838,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="B136" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C136">
         <v>20061231</v>
@@ -3850,7 +3865,7 @@
         <v>6</v>
       </c>
       <c r="F136" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G136">
         <v>20061001</v>
@@ -3861,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="B137" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C137">
         <v>20061231</v>
@@ -3873,7 +3888,7 @@
         <v>6</v>
       </c>
       <c r="F137" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G137">
         <v>20061001</v>
@@ -3884,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C138">
         <v>20070331</v>
@@ -3896,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G138">
         <v>20070101</v>
@@ -3907,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C139">
         <v>20070630</v>
@@ -3919,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="F139" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G139">
         <v>20070401</v>
@@ -3930,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="B140" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C140">
         <v>20070630</v>
@@ -3942,7 +3957,7 @@
         <v>2</v>
       </c>
       <c r="F140" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G140">
         <v>20070401</v>
@@ -3953,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C141">
         <v>20070930</v>
@@ -3965,7 +3980,7 @@
         <v>4</v>
       </c>
       <c r="F141" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G141">
         <v>20070701</v>
@@ -3976,7 +3991,7 @@
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C142">
         <v>20070930</v>
@@ -3988,7 +4003,7 @@
         <v>4</v>
       </c>
       <c r="F142" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G142">
         <v>20070701</v>
@@ -3999,7 +4014,7 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C143">
         <v>20070930</v>
@@ -4011,7 +4026,7 @@
         <v>4</v>
       </c>
       <c r="F143" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G143">
         <v>20070701</v>
@@ -4022,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="B144" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C144">
         <v>20070930</v>
@@ -4034,7 +4049,7 @@
         <v>4</v>
       </c>
       <c r="F144" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G144">
         <v>20070701</v>
@@ -4045,7 +4060,7 @@
         <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C145">
         <v>20071231</v>
@@ -4057,7 +4072,7 @@
         <v>6</v>
       </c>
       <c r="F145" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G145">
         <v>20071001</v>
@@ -4068,7 +4083,7 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C146">
         <v>20071231</v>
@@ -4080,7 +4095,7 @@
         <v>6</v>
       </c>
       <c r="F146" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G146">
         <v>20071001</v>
@@ -4091,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C147">
         <v>20071231</v>
@@ -4103,7 +4118,7 @@
         <v>6</v>
       </c>
       <c r="F147" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G147">
         <v>20071001</v>
@@ -4114,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C148">
         <v>20071231</v>
@@ -4126,7 +4141,7 @@
         <v>6</v>
       </c>
       <c r="F148" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G148">
         <v>20071001</v>
@@ -4137,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C149">
         <v>20071231</v>
@@ -4149,7 +4164,7 @@
         <v>6</v>
       </c>
       <c r="F149" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G149">
         <v>20071001</v>
@@ -4160,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C150">
         <v>20071231</v>
@@ -4172,7 +4187,7 @@
         <v>6</v>
       </c>
       <c r="F150" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G150">
         <v>20071001</v>
@@ -4183,7 +4198,7 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C151">
         <v>20080331</v>
@@ -4195,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G151">
         <v>20080101</v>
@@ -4206,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C152">
         <v>20080630</v>
@@ -4218,7 +4233,7 @@
         <v>3</v>
       </c>
       <c r="F152" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G152">
         <v>20080401</v>
@@ -4229,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="B153" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C153">
         <v>20080630</v>
@@ -4241,7 +4256,7 @@
         <v>3</v>
       </c>
       <c r="F153" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G153">
         <v>20080401</v>
@@ -4252,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="B154" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C154">
         <v>20080630</v>
@@ -4264,7 +4279,7 @@
         <v>3</v>
       </c>
       <c r="F154" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G154">
         <v>20080401</v>
@@ -4275,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C155">
         <v>20080930</v>
@@ -4287,7 +4302,7 @@
         <v>2</v>
       </c>
       <c r="F155" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G155">
         <v>20080701</v>
@@ -4298,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="B156" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C156">
         <v>20080930</v>
@@ -4310,7 +4325,7 @@
         <v>2</v>
       </c>
       <c r="F156" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G156">
         <v>20080701</v>
@@ -4321,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="B157" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C157">
         <v>20081231</v>
@@ -4333,7 +4348,7 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G157">
         <v>20081001</v>
@@ -4344,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="B158" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C158">
         <v>20081231</v>
@@ -4356,7 +4371,7 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G158">
         <v>20081001</v>
@@ -4367,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C159">
         <v>20081231</v>
@@ -4379,7 +4394,7 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G159">
         <v>20081001</v>
@@ -4390,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C160">
         <v>20081231</v>
@@ -4402,7 +4417,7 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G160">
         <v>20081001</v>
@@ -4413,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="B161" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C161">
         <v>20081231</v>
@@ -4425,7 +4440,7 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G161">
         <v>20081001</v>
@@ -4436,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C162">
         <v>20081231</v>
@@ -4448,7 +4463,7 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G162">
         <v>20081001</v>
@@ -4459,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="B163" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C163">
         <v>20081231</v>
@@ -4471,7 +4486,7 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G163">
         <v>20081001</v>
@@ -4482,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="B164" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C164">
         <v>20081231</v>
@@ -4494,7 +4509,7 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G164">
         <v>20081001</v>
@@ -4505,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="B165" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C165">
         <v>20081231</v>
@@ -4517,7 +4532,7 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G165">
         <v>20081001</v>
@@ -4528,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="B166" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C166">
         <v>20081231</v>
@@ -4540,7 +4555,7 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G166">
         <v>20081001</v>
@@ -4551,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="B167" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C167">
         <v>20090331</v>
@@ -4563,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="F167" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G167">
         <v>20090101</v>
@@ -4574,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="B168" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C168">
         <v>20090331</v>
@@ -4586,7 +4601,7 @@
         <v>3</v>
       </c>
       <c r="F168" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G168">
         <v>20090101</v>
@@ -4597,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="B169" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C169">
         <v>20090331</v>
@@ -4609,7 +4624,7 @@
         <v>3</v>
       </c>
       <c r="F169" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G169">
         <v>20090101</v>
@@ -4620,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="B170" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C170">
         <v>20090630</v>
@@ -4632,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G170">
         <v>20090401</v>
@@ -4643,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="B171" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C171">
         <v>20090930</v>
@@ -4655,7 +4670,7 @@
         <v>3</v>
       </c>
       <c r="F171" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G171">
         <v>20090701</v>
@@ -4666,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="B172" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C172">
         <v>20090930</v>
@@ -4678,7 +4693,7 @@
         <v>3</v>
       </c>
       <c r="F172" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G172">
         <v>20090701</v>
@@ -4689,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="B173" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C173">
         <v>20090930</v>
@@ -4701,7 +4716,7 @@
         <v>3</v>
       </c>
       <c r="F173" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G173">
         <v>20090701</v>
@@ -4712,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="B174" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C174">
         <v>20091231</v>
@@ -4724,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G174">
         <v>20091001</v>
@@ -4735,7 +4750,7 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C175">
         <v>20100331</v>
@@ -4747,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G175">
         <v>20100101</v>
@@ -4758,7 +4773,7 @@
         <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C176">
         <v>20100930</v>
@@ -4770,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G176">
         <v>20100701</v>
@@ -4781,7 +4796,7 @@
         <v>1</v>
       </c>
       <c r="B177" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C177">
         <v>20101231</v>
@@ -4793,7 +4808,7 @@
         <v>4</v>
       </c>
       <c r="F177" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G177">
         <v>20101001</v>
@@ -4804,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="B178" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C178">
         <v>20101231</v>
@@ -4816,7 +4831,7 @@
         <v>4</v>
       </c>
       <c r="F178" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G178">
         <v>20101001</v>
@@ -4827,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C179">
         <v>20101231</v>
@@ -4839,7 +4854,7 @@
         <v>4</v>
       </c>
       <c r="F179" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G179">
         <v>20101001</v>
@@ -4850,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="B180" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C180">
         <v>20101231</v>
@@ -4862,7 +4877,7 @@
         <v>4</v>
       </c>
       <c r="F180" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G180">
         <v>20101001</v>
@@ -4873,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="B181" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C181">
         <v>20110331</v>
@@ -4885,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="F181" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G181">
         <v>20110101</v>
@@ -4896,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="B182" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C182">
         <v>20110331</v>
@@ -4908,7 +4923,7 @@
         <v>2</v>
       </c>
       <c r="F182" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G182">
         <v>20110101</v>
@@ -4919,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C183">
         <v>20110630</v>
@@ -4931,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G183">
         <v>20110401</v>
@@ -4942,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="B184" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C184">
         <v>20110930</v>
@@ -4954,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G184">
         <v>20110701</v>
@@ -4965,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="B185" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C185">
         <v>20111231</v>
@@ -4977,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G185">
         <v>20111001</v>
@@ -4988,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="B186" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C186">
         <v>20120331</v>
@@ -5000,7 +5015,7 @@
         <v>2</v>
       </c>
       <c r="F186" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G186">
         <v>20120101</v>
@@ -5011,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="B187" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C187">
         <v>20120331</v>
@@ -5023,7 +5038,7 @@
         <v>2</v>
       </c>
       <c r="F187" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G187">
         <v>20120101</v>
@@ -5034,7 +5049,7 @@
         <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C188">
         <v>20120630</v>
@@ -5046,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G188">
         <v>20120401</v>
@@ -5057,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="B189" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C189">
         <v>20120930</v>
@@ -5069,7 +5084,7 @@
         <v>4</v>
       </c>
       <c r="F189" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G189">
         <v>20120701</v>
@@ -5080,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="B190" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C190">
         <v>20120930</v>
@@ -5092,7 +5107,7 @@
         <v>4</v>
       </c>
       <c r="F190" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G190">
         <v>20120701</v>
@@ -5103,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="B191" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C191">
         <v>20120930</v>
@@ -5115,7 +5130,7 @@
         <v>4</v>
       </c>
       <c r="F191" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G191">
         <v>20120701</v>
@@ -5126,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="B192" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C192">
         <v>20120930</v>
@@ -5138,7 +5153,7 @@
         <v>4</v>
       </c>
       <c r="F192" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G192">
         <v>20120701</v>
@@ -5149,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="B193" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C193">
         <v>20121231</v>
@@ -5161,7 +5176,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G193">
         <v>20121001</v>
@@ -5172,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="B194" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C194">
         <v>20130331</v>
@@ -5184,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G194">
         <v>20130101</v>
@@ -5195,7 +5210,7 @@
         <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C195">
         <v>20130630</v>
@@ -5207,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G195">
         <v>20130401</v>
@@ -5218,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C196">
         <v>20130930</v>
@@ -5230,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G196">
         <v>20130701</v>
@@ -5241,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="B197" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C197">
         <v>20131231</v>
@@ -5253,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G197">
         <v>20131001</v>
@@ -5264,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C198">
         <v>20140630</v>
@@ -5276,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G198">
         <v>20140401</v>
@@ -5287,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="B199" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C199">
         <v>20140930</v>
@@ -5299,7 +5314,7 @@
         <v>2</v>
       </c>
       <c r="F199" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G199">
         <v>20140701</v>
@@ -5310,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C200">
         <v>20140930</v>
@@ -5322,7 +5337,7 @@
         <v>2</v>
       </c>
       <c r="F200" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G200">
         <v>20140701</v>
@@ -5333,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="B201" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C201">
         <v>20141231</v>
@@ -5345,7 +5360,7 @@
         <v>6</v>
       </c>
       <c r="F201" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G201">
         <v>20141001</v>
@@ -5356,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="B202" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C202">
         <v>20141231</v>
@@ -5368,7 +5383,7 @@
         <v>6</v>
       </c>
       <c r="F202" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G202">
         <v>20141001</v>
@@ -5379,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="B203" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C203">
         <v>20141231</v>
@@ -5391,7 +5406,7 @@
         <v>6</v>
       </c>
       <c r="F203" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G203">
         <v>20141001</v>
@@ -5402,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="B204" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C204">
         <v>20141231</v>
@@ -5414,7 +5429,7 @@
         <v>6</v>
       </c>
       <c r="F204" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G204">
         <v>20141001</v>
@@ -5425,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="B205" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C205">
         <v>20141231</v>
@@ -5437,7 +5452,7 @@
         <v>6</v>
       </c>
       <c r="F205" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G205">
         <v>20141001</v>
@@ -5448,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="B206" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C206">
         <v>20141231</v>
@@ -5460,7 +5475,7 @@
         <v>6</v>
       </c>
       <c r="F206" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G206">
         <v>20141001</v>
@@ -5471,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="B207" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C207">
         <v>20150331</v>
@@ -5483,7 +5498,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G207">
         <v>20150101</v>
@@ -5494,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="B208" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C208">
         <v>20150630</v>
@@ -5506,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G208">
         <v>20150401</v>
@@ -5517,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="B209" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C209">
         <v>20150930</v>
@@ -5529,7 +5544,7 @@
         <v>2</v>
       </c>
       <c r="F209" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G209">
         <v>20150701</v>
@@ -5540,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="B210" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C210">
         <v>20150930</v>
@@ -5552,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="F210" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G210">
         <v>20150701</v>
@@ -5563,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="B211" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C211">
         <v>20151231</v>
@@ -5575,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G211">
         <v>20151001</v>
@@ -5586,7 +5601,7 @@
         <v>2</v>
       </c>
       <c r="B212" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C212">
         <v>20160331</v>
@@ -5598,7 +5613,7 @@
         <v>5</v>
       </c>
       <c r="F212" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G212">
         <v>20160101</v>
@@ -5609,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="B213" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C213">
         <v>20160331</v>
@@ -5621,7 +5636,7 @@
         <v>5</v>
       </c>
       <c r="F213" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G213">
         <v>20160101</v>
@@ -5632,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="B214" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C214">
         <v>20160331</v>
@@ -5644,7 +5659,7 @@
         <v>5</v>
       </c>
       <c r="F214" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G214">
         <v>20160101</v>
@@ -5655,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="B215" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C215">
         <v>20160331</v>
@@ -5667,7 +5682,7 @@
         <v>5</v>
       </c>
       <c r="F215" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G215">
         <v>20160101</v>
@@ -5678,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="B216" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C216">
         <v>20160331</v>
@@ -5690,7 +5705,7 @@
         <v>5</v>
       </c>
       <c r="F216" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G216">
         <v>20160101</v>
@@ -5701,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="B217" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C217">
         <v>20160630</v>
@@ -5713,7 +5728,7 @@
         <v>3</v>
       </c>
       <c r="F217" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G217">
         <v>20160401</v>
@@ -5724,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="B218" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C218">
         <v>20160630</v>
@@ -5736,7 +5751,7 @@
         <v>3</v>
       </c>
       <c r="F218" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G218">
         <v>20160401</v>
@@ -5747,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="B219" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C219">
         <v>20160630</v>
@@ -5759,7 +5774,7 @@
         <v>3</v>
       </c>
       <c r="F219" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G219">
         <v>20160401</v>
@@ -5770,7 +5785,7 @@
         <v>3</v>
       </c>
       <c r="B220" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C220">
         <v>20160930</v>
@@ -5782,7 +5797,7 @@
         <v>2</v>
       </c>
       <c r="F220" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G220">
         <v>20160701</v>
@@ -5793,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="B221" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C221">
         <v>20160930</v>
@@ -5805,7 +5820,7 @@
         <v>2</v>
       </c>
       <c r="F221" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G221">
         <v>20160701</v>
@@ -5816,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="B222" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C222">
         <v>20161231</v>
@@ -5828,7 +5843,7 @@
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G222">
         <v>20161001</v>
@@ -5839,7 +5854,7 @@
         <v>4</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C223">
         <v>20170331</v>
@@ -5851,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G223">
         <v>20170101</v>
@@ -5862,7 +5877,7 @@
         <v>2</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C224">
         <v>20170630</v>
@@ -5874,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G224">
         <v>20170401</v>
@@ -5885,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="B225" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C225">
         <v>20170930</v>
@@ -5897,7 +5912,7 @@
         <v>4</v>
       </c>
       <c r="F225" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G225">
         <v>20170701</v>
@@ -5908,7 +5923,7 @@
         <v>1</v>
       </c>
       <c r="B226" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C226">
         <v>20170930</v>
@@ -5920,7 +5935,7 @@
         <v>4</v>
       </c>
       <c r="F226" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G226">
         <v>20170701</v>
@@ -5931,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="B227" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C227">
         <v>20170930</v>
@@ -5943,7 +5958,7 @@
         <v>4</v>
       </c>
       <c r="F227" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G227">
         <v>20170701</v>
@@ -5954,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="B228" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C228">
         <v>20170930</v>
@@ -5966,7 +5981,7 @@
         <v>4</v>
       </c>
       <c r="F228" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G228">
         <v>20170701</v>
@@ -5977,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="B229" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C229">
         <v>20171231</v>
@@ -5989,7 +6004,7 @@
         <v>2</v>
       </c>
       <c r="F229" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G229">
         <v>20171001</v>
@@ -6000,7 +6015,7 @@
         <v>1</v>
       </c>
       <c r="B230" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C230">
         <v>20171231</v>
@@ -6012,7 +6027,7 @@
         <v>2</v>
       </c>
       <c r="F230" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G230">
         <v>20171001</v>
@@ -6023,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="B231" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C231">
         <v>20180331</v>
@@ -6035,7 +6050,7 @@
         <v>2</v>
       </c>
       <c r="F231" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G231">
         <v>20180101</v>
@@ -6046,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="B232" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C232">
         <v>20180331</v>
@@ -6058,7 +6073,7 @@
         <v>2</v>
       </c>
       <c r="F232" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G232">
         <v>20180101</v>
@@ -6069,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C233">
         <v>20180630</v>
@@ -6081,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="F233" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G233">
         <v>20180401</v>
@@ -6092,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="B234" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C234">
         <v>20180930</v>
@@ -6104,125 +6119,125 @@
         <v>1</v>
       </c>
       <c r="F234" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G234">
         <v>20180701</v>
       </c>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235">
-        <v>3</v>
+      <c r="A235" t="s">
+        <v>7</v>
       </c>
       <c r="B235" t="s">
-        <v>22</v>
-      </c>
-      <c r="C235">
-        <v>20181231</v>
-      </c>
-      <c r="D235">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="C235" t="s">
+        <v>118</v>
+      </c>
+      <c r="D235" t="s">
+        <v>119</v>
       </c>
       <c r="E235">
         <v>5</v>
       </c>
       <c r="F235" t="s">
-        <v>116</v>
-      </c>
-      <c r="G235">
-        <v>20181001</v>
+        <v>120</v>
+      </c>
+      <c r="G235" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236">
-        <v>1</v>
+      <c r="A236" t="s">
+        <v>8</v>
       </c>
       <c r="B236" t="s">
-        <v>113</v>
-      </c>
-      <c r="C236">
-        <v>20181231</v>
-      </c>
-      <c r="D236">
-        <v>6</v>
+        <v>115</v>
+      </c>
+      <c r="C236" t="s">
+        <v>118</v>
+      </c>
+      <c r="D236" t="s">
+        <v>119</v>
       </c>
       <c r="E236">
         <v>5</v>
       </c>
       <c r="F236" t="s">
+        <v>120</v>
+      </c>
+      <c r="G236" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>8</v>
+      </c>
+      <c r="B237" t="s">
         <v>116</v>
       </c>
-      <c r="G236">
-        <v>20181001</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237">
-        <v>1</v>
-      </c>
-      <c r="B237" t="s">
-        <v>114</v>
-      </c>
-      <c r="C237">
-        <v>20181231</v>
-      </c>
-      <c r="D237">
-        <v>6</v>
+      <c r="C237" t="s">
+        <v>118</v>
+      </c>
+      <c r="D237" t="s">
+        <v>119</v>
       </c>
       <c r="E237">
         <v>5</v>
       </c>
       <c r="F237" t="s">
-        <v>116</v>
-      </c>
-      <c r="G237">
-        <v>20181001</v>
+        <v>120</v>
+      </c>
+      <c r="G237" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238">
-        <v>1</v>
+      <c r="A238" t="s">
+        <v>8</v>
       </c>
       <c r="B238" t="s">
-        <v>62</v>
-      </c>
-      <c r="C238">
-        <v>20181231</v>
-      </c>
-      <c r="D238">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="C238" t="s">
+        <v>118</v>
+      </c>
+      <c r="D238" t="s">
+        <v>119</v>
       </c>
       <c r="E238">
         <v>5</v>
       </c>
       <c r="F238" t="s">
-        <v>116</v>
-      </c>
-      <c r="G238">
-        <v>20181001</v>
+        <v>120</v>
+      </c>
+      <c r="G238" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239">
-        <v>1</v>
+      <c r="A239" t="s">
+        <v>8</v>
       </c>
       <c r="B239" t="s">
-        <v>115</v>
-      </c>
-      <c r="C239">
-        <v>20181231</v>
-      </c>
-      <c r="D239">
-        <v>6</v>
+        <v>117</v>
+      </c>
+      <c r="C239" t="s">
+        <v>118</v>
+      </c>
+      <c r="D239" t="s">
+        <v>119</v>
       </c>
       <c r="E239">
         <v>5</v>
       </c>
       <c r="F239" t="s">
-        <v>116</v>
-      </c>
-      <c r="G239">
-        <v>20181001</v>
+        <v>120</v>
+      </c>
+      <c r="G239" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
